--- a/MATLAB/FullSystemData.xlsx
+++ b/MATLAB/FullSystemData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8C547-FBD0-471C-818B-D2942C8E8BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FB605-7D86-4716-817B-85B81A3B9926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,64 +678,64 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -1054,83 +1054,83 @@
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ref="D9:V9" si="2">C9+0.5</f>
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3.5009999999999999</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.0009999999999994</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.5009999999999994</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>5.0009999999999994</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>5.5009999999999994</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>6.0009999999999994</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>6.5009999999999994</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.0009999999999994</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>7.5009999999999994</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>8.0009999999999994</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8.5009999999999994</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>9.0009999999999994</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9.5009999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/MATLAB/FullSystemData.xlsx
+++ b/MATLAB/FullSystemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FB605-7D86-4716-817B-85B81A3B9926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75768B7E-E2A5-413A-B4D8-14F707AB5307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MATLAB/FullSystemData.xlsx
+++ b/MATLAB/FullSystemData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8C547-FBD0-471C-818B-D2942C8E8BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C9F34-99C5-46B9-8E70-94B0D1E58652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,18 +474,18 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -575,7 +575,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -672,70 +672,70 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="D4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="E4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="F4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="I4" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="J4" s="3">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="K4" s="3">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="L4" s="3">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="M4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="N4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="O4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="P4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="R4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="T4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="U4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="V4" s="3">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -750,7 +750,7 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -828,7 +828,7 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -894,7 +894,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -965,7 +965,7 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0.95000000000000029</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1198,35 +1198,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -1238,16 +1238,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10647C-DAB1-411C-94FE-86D8B5544BDA}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView topLeftCell="E2" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1339,734 +1339,734 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="T2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="O3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="S3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="T3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U3" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="V3" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="H4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="I4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="J4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="K4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="L4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="M4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="N4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="O4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="P4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="R4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="U4" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="V4" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="L5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="P5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="R5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="T5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="U5" s="5">
-        <v>0.45</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V5" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="D6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="J6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="K6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="L6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="M6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="N6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="O6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="P6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="Q6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="R6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="T6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="U6" s="5">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="V6" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="O7" s="5">
-        <v>100</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="S7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="T7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U7" s="5">
-        <v>0.45</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="V7" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="R8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U8" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V8" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="R9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U9" s="5">
-        <v>0.45</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V9" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="S10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="T10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U10" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="V10" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="S11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="T11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U11" s="5">
-        <v>0.45</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="V11" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="D12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="E12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="F12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="G12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="H12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="I12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="J12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="K12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="L12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="M12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="N12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="O12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="P12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="Q12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="R12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="S12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="T12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="U12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
       <c r="V12" s="5">
-        <v>0.45</v>
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2085,12 +2085,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>

--- a/MATLAB/FullSystemData.xlsx
+++ b/MATLAB/FullSystemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C9F34-99C5-46B9-8E70-94B0D1E58652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693AD62-B151-40E4-A62C-6440E61136A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="-23148" yWindow="6936" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,18 +474,18 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -575,7 +575,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -750,7 +750,7 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -828,7 +828,7 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -894,7 +894,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -965,7 +965,7 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0.95000000000000029</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1198,35 +1198,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -1242,12 +1242,12 @@
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="22" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
@@ -1466,7 +1466,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="6">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="6">
         <f t="shared" si="1"/>
@@ -1600,7 +1600,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <f t="shared" si="1"/>
@@ -1667,7 +1667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="6">
         <f t="shared" si="1"/>
@@ -1734,7 +1734,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="6">
         <f t="shared" si="1"/>
@@ -1801,7 +1801,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="6">
         <f t="shared" si="1"/>
@@ -1868,7 +1868,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="6">
         <f t="shared" si="1"/>
@@ -1935,7 +1935,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="6">
         <f t="shared" si="1"/>
@@ -2002,7 +2002,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="6">
         <f t="shared" si="1"/>
@@ -2085,12 +2085,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>

--- a/MATLAB/FullSystemData.xlsx
+++ b/MATLAB/FullSystemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693AD62-B151-40E4-A62C-6440E61136A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14048045-F59B-4F19-A91F-838AB779A92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="6936" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MATLAB/FullSystemData.xlsx
+++ b/MATLAB/FullSystemData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693AD62-B151-40E4-A62C-6440E61136A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EAF957-74C6-4A82-BBB1-852D2BBB0BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6936" windowWidth="23256" windowHeight="12576" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{AE60107F-AC21-4698-A78C-89307190AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -473,19 +473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1BE27-50BC-469A-A422-B492F918308C}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -575,7 +575,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -750,7 +750,7 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -828,7 +828,7 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -882,19 +882,19 @@
         <v>0.8</v>
       </c>
       <c r="S6" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="T6" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="U6" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="V6" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -965,7 +965,7 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0.95000000000000029</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1198,35 +1198,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -1242,12 +1242,12 @@
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B12" si="1">B2+1</f>
@@ -1466,7 +1466,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="6">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="6">
         <f t="shared" si="1"/>
@@ -1600,7 +1600,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <f t="shared" si="1"/>
@@ -1667,7 +1667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="6">
         <f t="shared" si="1"/>
@@ -1734,7 +1734,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="6">
         <f t="shared" si="1"/>
@@ -1801,7 +1801,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="6">
         <f t="shared" si="1"/>
@@ -1868,7 +1868,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="6">
         <f t="shared" si="1"/>
@@ -1935,7 +1935,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="6">
         <f t="shared" si="1"/>
@@ -2002,7 +2002,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="6">
         <f t="shared" si="1"/>
@@ -2085,12 +2085,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
